--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H2">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>142.4548561895324</v>
+        <v>332.502177942356</v>
       </c>
       <c r="R2">
-        <v>142.4548561895324</v>
+        <v>2992.519601481204</v>
       </c>
       <c r="S2">
-        <v>0.5566678540534273</v>
+        <v>0.5727688814317935</v>
       </c>
       <c r="T2">
-        <v>0.5566678540534273</v>
+        <v>0.5727688814317935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H3">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>21.32174178814893</v>
+        <v>49.560146400704</v>
       </c>
       <c r="R3">
-        <v>21.32174178814893</v>
+        <v>446.041317606336</v>
       </c>
       <c r="S3">
-        <v>0.08331852323867842</v>
+        <v>0.08537240204919308</v>
       </c>
       <c r="T3">
-        <v>0.08331852323867842</v>
+        <v>0.08537240204919307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H4">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>69.19777877445033</v>
+        <v>155.168297705784</v>
       </c>
       <c r="R4">
-        <v>69.19777877445033</v>
+        <v>1396.514679352056</v>
       </c>
       <c r="S4">
-        <v>0.2704027089423121</v>
+        <v>0.2672932034930167</v>
       </c>
       <c r="T4">
-        <v>0.2704027089423121</v>
+        <v>0.2672932034930167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>7.069130653293379</v>
+        <v>13.86212363752078</v>
       </c>
       <c r="R5">
-        <v>7.069130653293379</v>
+        <v>124.759112737687</v>
       </c>
       <c r="S5">
-        <v>0.02762389360427632</v>
+        <v>0.02387892043073618</v>
       </c>
       <c r="T5">
-        <v>0.02762389360427632</v>
+        <v>0.02387892043073618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>1.058062760989157</v>
+        <v>2.066178577089778</v>
       </c>
       <c r="R6">
-        <v>1.058062760989157</v>
+        <v>18.595607193808</v>
       </c>
       <c r="S6">
-        <v>0.004134569662055207</v>
+        <v>0.003559203129921193</v>
       </c>
       <c r="T6">
-        <v>0.004134569662055207</v>
+        <v>0.003559203129921193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>3.433846708766849</v>
+        <v>6.469016656468666</v>
       </c>
       <c r="R7">
-        <v>3.433846708766849</v>
+        <v>58.221149908218</v>
       </c>
       <c r="S7">
-        <v>0.01341837077125998</v>
+        <v>0.01114354034376147</v>
       </c>
       <c r="T7">
-        <v>0.01341837077125998</v>
+        <v>0.01114354034376147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>6.952906766212297</v>
+        <v>12.92874684495078</v>
       </c>
       <c r="R8">
-        <v>6.952906766212297</v>
+        <v>116.358721604557</v>
       </c>
       <c r="S8">
-        <v>0.02716972795810772</v>
+        <v>0.02227108380018214</v>
       </c>
       <c r="T8">
-        <v>0.02716972795810772</v>
+        <v>0.02227108380018214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>1.040667104735355</v>
+        <v>1.927056810209778</v>
       </c>
       <c r="R9">
-        <v>1.040667104735355</v>
+        <v>17.343511291888</v>
       </c>
       <c r="S9">
-        <v>0.004066593020923571</v>
+        <v>0.003319551710818347</v>
       </c>
       <c r="T9">
-        <v>0.004066593020923571</v>
+        <v>0.003319551710818346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>3.377390684439793</v>
+        <v>6.033439094488665</v>
       </c>
       <c r="R10">
-        <v>3.377390684439793</v>
+        <v>54.30095185039799</v>
       </c>
       <c r="S10">
-        <v>0.01319775874895927</v>
+        <v>0.01039321361057741</v>
       </c>
       <c r="T10">
-        <v>0.01319775874895927</v>
+        <v>0.01039321361057741</v>
       </c>
     </row>
   </sheetData>
